--- a/unggahdokumen.xlsx
+++ b/unggahdokumen.xlsx
@@ -24,24 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>noKTP</t>
-  </si>
-  <si>
-    <t>namaKTP</t>
-  </si>
-  <si>
-    <t>noNPWP</t>
-  </si>
-  <si>
-    <t>namaNPWP</t>
-  </si>
-  <si>
-    <t>noKK</t>
-  </si>
-  <si>
-    <t>namaKK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>not_empty</t>
+  </si>
+  <si>
+    <t>nama_foto</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>gambara</t>
+  </si>
+  <si>
+    <t>gambarb</t>
+  </si>
+  <si>
+    <t>hapus_foto</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
   </si>
 </sst>
 </file>
@@ -359,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,24 +390,60 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
